--- a/Games ML.xlsx
+++ b/Games ML.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seaso\Desktop\UNISTUFF FOR THIS WEEK\nl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seaso\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2647D1-1EED-44D8-A3A4-1F32E4B5FD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB65810C-E7F1-408B-9F99-ECAE1007EA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{617A729C-6942-48CF-978A-F34CE9F2986B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="228">
   <si>
     <t>Games title</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>Originally released in 2002. Using art from HD PS VITA relesase from 2015.</t>
+  </si>
+  <si>
+    <t>Minazuki Tooru,Ra-You</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EB7101-636B-421C-B4BD-26622519F84D}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1159,6 +1162,12 @@
       <c r="C4">
         <v>4</v>
       </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
